--- a/trip_costs_state_summary.xlsx
+++ b/trip_costs_state_summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.carr-harris\Dropbox\NMFS\fluke_mse\simulation_R_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.carr-harris\Desktop\Git\Rec.-deman-modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -864,7 +864,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -885,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>37.062399999999997</v>
+        <v>36.873260000000002</v>
       </c>
       <c r="C2">
-        <v>11.15293</v>
+        <v>1.31033</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -896,10 +896,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50.329889999999999</v>
+        <v>50.564999999999998</v>
       </c>
       <c r="C3">
-        <v>13.448230000000001</v>
+        <v>0.49640000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -907,10 +907,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53.598520000000001</v>
+        <v>53.27</v>
       </c>
       <c r="C4">
-        <v>33.105089999999997</v>
+        <v>2.5890629999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -918,10 +918,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>42.322580000000002</v>
+        <v>42.31</v>
       </c>
       <c r="C5">
-        <v>32.334429999999998</v>
+        <v>1.776</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -929,10 +929,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>93.733000000000004</v>
+        <v>93.956999999999994</v>
       </c>
       <c r="C6">
-        <v>119.93210000000001</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -940,10 +940,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>43.965170000000001</v>
+        <v>43.9495</v>
       </c>
       <c r="C7">
-        <v>25.40549</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -951,10 +951,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>40.570970000000003</v>
+        <v>40.28</v>
       </c>
       <c r="C8">
-        <v>18.630009999999999</v>
+        <v>1.7626999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -962,10 +962,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.929480000000002</v>
+        <v>27.70608</v>
       </c>
       <c r="C9">
-        <v>10.253119999999999</v>
+        <v>0.39759</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -973,10 +973,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>41.193919999999999</v>
+        <v>41.1</v>
       </c>
       <c r="C10">
-        <v>16.901440000000001</v>
+        <v>1.4690000000000001</v>
       </c>
     </row>
   </sheetData>
